--- a/ExcelCAT/colouring/Finanzen 2017_Test.xlsx
+++ b/ExcelCAT/colouring/Finanzen 2017_Test.xlsx
@@ -1144,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1349,6 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="19" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Standard" xfId="0"/>
@@ -43062,7 +43063,7 @@
       <c r="B7" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="114" t="n"/>
+      <c r="C7" s="134" t="n"/>
       <c r="D7" s="111" t="n"/>
       <c r="E7" s="111" t="n"/>
       <c r="F7" s="111" t="n"/>
